--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_18_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_18_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1298364.776265409</v>
+        <v>1294352.166251416</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283191</v>
       </c>
     </row>
     <row r="9">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>75.45713216103971</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>330.7598727037308</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -679,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292587</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,10 +712,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -727,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247739</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734116405</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -819,16 +819,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -873,13 +873,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>270.0697021486472</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>15.72846594283918</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>117.0340619339638</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>94.81275980261485</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -916,7 +916,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.8172186824772</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1053,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>74.7576914549238</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>96.68310641755605</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1110,16 +1110,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>37.28707743115451</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>79.76470074482877</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1305,10 +1305,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>90.43200784035554</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>157.7822070347172</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444159</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1530,10 +1530,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1545,10 +1545,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>26.13627195705918</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>24.83266606353211</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1770,7 +1770,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1782,10 +1782,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1821,19 +1821,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>185.0663491738901</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>9.795251606876045</v>
       </c>
     </row>
     <row r="17">
@@ -2007,10 +2007,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2019,7 +2019,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>71.79687029691033</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2086,7 +2086,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206816</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>63.16281301712621</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2380,7 +2380,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2478,10 +2478,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>45.66054613217656</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2490,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2538,7 +2538,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>229.2938944146487</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2566,7 +2566,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417101</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
@@ -2724,13 +2724,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>114.9322208041654</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,22 +2760,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>161.0175085755505</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2809,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2949,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -2964,13 +2964,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>25.52471385612634</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>201.6887504327738</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3192,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>172.026033500079</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3325,7 +3325,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3429,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>27.02919805176115</v>
       </c>
       <c r="H37" t="n">
-        <v>107.4021082756248</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3660,16 +3660,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>63.1628130171261</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -3678,10 +3678,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>107.4021082756243</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3808,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>244.6551177944156</v>
+        <v>176.76214411214</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -4146,7 +4146,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,16 +4185,16 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>160.9359580870421</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>206.7582264966188</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1232.150970528558</v>
+        <v>1952.040104645723</v>
       </c>
       <c r="C2" t="n">
-        <v>1232.150970528558</v>
+        <v>1952.040104645723</v>
       </c>
       <c r="D2" t="n">
-        <v>1232.150970528558</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
         <v>1232.150970528558</v>
@@ -4321,61 +4321,61 @@
         <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839474</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927146</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218346</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
         <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.52802693951</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052371</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609173</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136268</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.33740552049</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794327</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450756</v>
+        <v>2678.274518176917</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180642</v>
+        <v>2325.505862906803</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.509627919562</v>
+        <v>1952.040104645723</v>
       </c>
       <c r="Y2" t="n">
-        <v>1308.37029594375</v>
+        <v>1952.040104645723</v>
       </c>
     </row>
     <row r="3">
@@ -4385,52 +4385,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556939</v>
+        <v>1702.096133556938</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275812</v>
+        <v>1527.643104275811</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614561</v>
+        <v>1378.70869461456</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609105</v>
+        <v>1219.471239609104</v>
       </c>
       <c r="F3" t="n">
         <v>1072.93668163599</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686083</v>
+        <v>936.5735814686076</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064758</v>
+        <v>846.0716871064751</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080138</v>
+        <v>827.064395508013</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986312</v>
+        <v>920.7416649986303</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978979</v>
+        <v>1159.005863978977</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291644</v>
+        <v>1525.704024291643</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.98034951396</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068415</v>
+        <v>2446.503393068413</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.46467248647</v>
+        <v>2857.464672486468</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962573</v>
+        <v>3167.964263962571</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609173</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R3" t="n">
         <v>3325.461468201687</v>
@@ -4448,7 +4448,7 @@
         <v>2540.160626275695</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547494</v>
+        <v>2285.923269547493</v>
       </c>
       <c r="X3" t="n">
         <v>2078.071769341961</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>66.51211643218346</v>
+        <v>777.6936570343842</v>
       </c>
       <c r="C4" t="n">
-        <v>66.51211643218346</v>
+        <v>608.7574741064773</v>
       </c>
       <c r="D4" t="n">
-        <v>66.51211643218346</v>
+        <v>458.6408346941415</v>
       </c>
       <c r="E4" t="n">
-        <v>66.51211643218346</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218346</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218346</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218346</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218346</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791191</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279956</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764919</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760409</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935979</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S4" t="n">
-        <v>1735.60866391532</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1513.842048484846</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1241.044369546818</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V4" t="n">
-        <v>986.3598813409312</v>
+        <v>1408.124251906171</v>
       </c>
       <c r="W4" t="n">
-        <v>696.9427113039706</v>
+        <v>1408.124251906171</v>
       </c>
       <c r="X4" t="n">
-        <v>468.9531604059533</v>
+        <v>1180.134701008154</v>
       </c>
       <c r="Y4" t="n">
-        <v>248.1605812624232</v>
+        <v>959.3421218646239</v>
       </c>
     </row>
     <row r="5">
@@ -4543,52 +4543,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1190.154071768027</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="C5" t="n">
-        <v>1190.154071768027</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D5" t="n">
-        <v>1190.154071768027</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
-        <v>1190.154071768027</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>779.1681669784198</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4597,22 +4597,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450754</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.97538618064</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X5" t="n">
-        <v>1698.50962791956</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="Y5" t="n">
-        <v>1308.370295943748</v>
+        <v>2071.975386180639</v>
       </c>
     </row>
     <row r="6">
@@ -4622,37 +4622,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387301</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1021.570547268603</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C7" t="n">
-        <v>852.6343643406964</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D7" t="n">
-        <v>702.5177249283606</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E7" t="n">
-        <v>554.6046313459675</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F7" t="n">
-        <v>407.7146838480571</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4758,19 +4758,19 @@
         <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1424.011591242373</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>1424.011591242373</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W7" t="n">
-        <v>1424.011591242373</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X7" t="n">
-        <v>1424.011591242373</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="Y7" t="n">
-        <v>1203.219012098843</v>
+        <v>142.0249360836216</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1617.939223126803</v>
+        <v>1628.178203944121</v>
       </c>
       <c r="C8" t="n">
-        <v>1617.939223126803</v>
+        <v>1259.215687003709</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>900.949988396959</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>515.1617357987147</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>104.1758310091072</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450753</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.975386180639</v>
+        <v>2388.243802269323</v>
       </c>
       <c r="X8" t="n">
-        <v>1698.509627919559</v>
+        <v>2014.778044008243</v>
       </c>
       <c r="Y8" t="n">
-        <v>1617.939223126803</v>
+        <v>2014.778044008243</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>917.9306290998774</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C10" t="n">
-        <v>748.9944461719705</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D10" t="n">
-        <v>598.8778067596347</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E10" t="n">
-        <v>450.9647131772416</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F10" t="n">
-        <v>304.0747656793312</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1548.361223971664</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1548.361223971664</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="W10" t="n">
-        <v>1548.361223971664</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X10" t="n">
-        <v>1320.371673073647</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y10" t="n">
-        <v>1099.579093930117</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="11">
@@ -5017,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611466</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168634</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362708</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075814</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5053,40 +5053,40 @@
         <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.422291068013</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694711</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="12">
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273913</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.230692780394</v>
       </c>
       <c r="K12" t="n">
-        <v>244.2098454714565</v>
+        <v>579.1554649516147</v>
       </c>
       <c r="L12" t="n">
-        <v>739.5354516872154</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M12" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N12" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348534</v>
       </c>
       <c r="O12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>983.3556038098246</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="C13" t="n">
-        <v>814.4194208819177</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="D13" t="n">
-        <v>664.302781469582</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E13" t="n">
-        <v>516.3896878871889</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>369.4997403892785</v>
+        <v>261.012762333092</v>
       </c>
       <c r="G13" t="n">
-        <v>202.3036411041584</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782959</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038346</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M13" t="n">
         <v>1248.15024091081</v>
@@ -5214,37 +5214,37 @@
         <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2421.879582505987</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.963083580261</v>
+        <v>2239.024748160891</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.963083580261</v>
+        <v>2019.423283183833</v>
       </c>
       <c r="U13" t="n">
-        <v>2157.887856924459</v>
+        <v>1730.34805652803</v>
       </c>
       <c r="V13" t="n">
-        <v>1903.203368718572</v>
+        <v>1475.663568322143</v>
       </c>
       <c r="W13" t="n">
-        <v>1613.786198681612</v>
+        <v>1186.246398285183</v>
       </c>
       <c r="X13" t="n">
-        <v>1385.796647783594</v>
+        <v>958.2568473871653</v>
       </c>
       <c r="Y13" t="n">
-        <v>1165.004068640064</v>
+        <v>737.4642682436352</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5266,19 +5266,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075809</v>
@@ -5293,7 +5293,7 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694709</v>
@@ -5308,10 +5308,10 @@
         <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5354,28 +5354,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468473</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263526</v>
+        <v>724.7519863413023</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356194</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1977.461080510509</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1977.461080510509</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1688.043910473549</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>906.400451171542</v>
       </c>
     </row>
     <row r="17">
@@ -5512,22 +5512,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5591,28 +5591,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>727.9786782557277</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>559.0424953278208</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>408.925855915485</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2191.586158026164</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1902.510931370362</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1647.826443164475</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1358.409273127515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1130.419722229497</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>909.6271430859674</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5825,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>506.2737913123336</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1103.652278938886</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1731.250242493492</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>695.5020655703109</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>695.5020655703109</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>695.5020655703109</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5971,37 +5971,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.422291068009</v>
@@ -6028,10 +6028,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6065,31 +6065,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1336.167399417937</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1888.077129657224</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2311.700279152292</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2544.961939527175</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>467.7318369701959</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6186,13 +6186,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6202,16 +6202,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F26" t="n">
         <v>793.7736536168611</v>
@@ -6220,7 +6220,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192599</v>
@@ -6232,13 +6232,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6247,31 +6247,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6299,25 +6299,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>985.7836617409695</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C28" t="n">
-        <v>816.8474788130626</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D28" t="n">
-        <v>666.7308394007268</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E28" t="n">
-        <v>518.8177458183337</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>2160.315914855604</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>2160.315914855604</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1905.631426649717</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1616.214256612757</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X28" t="n">
-        <v>1388.224705714739</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y28" t="n">
-        <v>1167.432126571209</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="29">
@@ -6442,70 +6442,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,28 +6536,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468472</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>577.3880777468472</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>949.9304447718132</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>779.6143379232838</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C31" t="n">
-        <v>779.6143379232838</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232838</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614391</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y31" t="n">
-        <v>779.6143379232838</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="32">
@@ -6691,28 +6691,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6721,7 +6721,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6776,31 +6776,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>315.9123021921476</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>913.2907898186995</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1540.888753373306</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2092.798483612593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408905</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2273.199413378161</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6925,52 +6925,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
         <v>3820.749612123003</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,25 +7010,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3227.225672628158</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>3058.289489700251</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>2908.172850287915</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>2760.259756705522</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>2613.369809207612</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>2446.173709922492</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>2337.686731866305</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>4690.833152398594</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>4690.833152398594</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>4690.833152398594</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>4401.757925742792</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>4147.073437536906</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>3857.656267499945</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>3629.666716601928</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>3408.874137458398</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7186,10 +7186,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7250,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>874.8686257536381</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="C40" t="n">
-        <v>705.9324428257312</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="D40" t="n">
-        <v>555.8158034133954</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E40" t="n">
-        <v>407.9027098310023</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,34 +7484,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2092.798483612593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,73 +7545,73 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263526</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356194</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232836</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408905</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="V43" t="n">
-        <v>1508.305175991783</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W43" t="n">
-        <v>1508.305175991783</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.315625093766</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y43" t="n">
         <v>1280.315625093766</v>
@@ -7636,34 +7636,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192571</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111714</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>680.0291294438171</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3342.537229081859</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="C46" t="n">
-        <v>3173.601046153952</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D46" t="n">
-        <v>3023.484406741616</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E46" t="n">
-        <v>2875.571313159223</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F46" t="n">
-        <v>2728.681365661313</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>4690.833152398593</v>
+        <v>2284.401509754965</v>
       </c>
       <c r="T46" t="n">
-        <v>4471.231687421535</v>
+        <v>2064.800044777906</v>
       </c>
       <c r="U46" t="n">
-        <v>4471.231687421535</v>
+        <v>1775.724818122104</v>
       </c>
       <c r="V46" t="n">
-        <v>4262.384993990607</v>
+        <v>1521.040329916217</v>
       </c>
       <c r="W46" t="n">
-        <v>3972.967823953646</v>
+        <v>1231.623159879256</v>
       </c>
       <c r="X46" t="n">
-        <v>3744.978273055629</v>
+        <v>1003.633608981239</v>
       </c>
       <c r="Y46" t="n">
-        <v>3524.185693912098</v>
+        <v>782.8410298377091</v>
       </c>
     </row>
   </sheetData>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>-1.187824270788672e-12</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23418,10 +23418,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>114.1584408891647</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>41.54258064658951</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23658,7 +23658,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23709,19 +23709,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>40.64330621514708</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>208.7894017452188</v>
       </c>
     </row>
     <row r="17">
@@ -23895,10 +23895,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23907,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>145.6085800303779</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23974,7 +23974,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>83.27114962944296</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24366,10 +24366,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>121.5862749664513</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24378,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24426,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24612,13 +24612,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>30.48882721876581</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24648,22 +24648,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>125.505489761045</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24837,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24852,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>191.8807364711619</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>16.89590291932097</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>63.36835372228749</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>45.37941682720927</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25213,7 +25213,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="H37" t="n">
-        <v>32.89260457059906</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25548,16 +25548,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>116.6691671648112</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>110.0033420516639</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>7.482525529412356</v>
+        <v>75.37549921168795</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26034,7 +26034,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26070,19 +26070,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>20.09032791460254</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>45.37941682720918</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>955177.0267141478</v>
+        <v>955177.0267141479</v>
       </c>
     </row>
     <row r="3">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>939197.581013729</v>
+        <v>939197.5810137287</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>939197.581013729</v>
+        <v>939197.5810137287</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>939197.5810137289</v>
+        <v>939197.5810137287</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>939197.5810137289</v>
+        <v>939197.5810137287</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>939197.5810137289</v>
+        <v>939197.5810137287</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>939197.5810137289</v>
+        <v>939197.5810137286</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>939197.581013729</v>
+        <v>939197.5810137287</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>939197.581013729</v>
+        <v>939197.5810137287</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>939197.581013729</v>
+        <v>939197.5810137287</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>939197.5810137289</v>
+        <v>939197.581013729</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>492625.0619185701</v>
+        <v>492625.06191857</v>
       </c>
       <c r="C2" t="n">
         <v>492625.06191857</v>
       </c>
       <c r="D2" t="n">
-        <v>492625.0619185699</v>
+        <v>492625.06191857</v>
       </c>
       <c r="E2" t="n">
-        <v>484287.9598140037</v>
+        <v>484287.959814004</v>
       </c>
       <c r="F2" t="n">
+        <v>484287.9598140035</v>
+      </c>
+      <c r="G2" t="n">
+        <v>484287.9598140035</v>
+      </c>
+      <c r="H2" t="n">
         <v>484287.9598140036</v>
       </c>
-      <c r="G2" t="n">
-        <v>484287.9598140036</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>484287.9598140035</v>
       </c>
-      <c r="I2" t="n">
-        <v>484287.9598140036</v>
-      </c>
       <c r="J2" t="n">
-        <v>484287.9598140037</v>
+        <v>484287.9598140035</v>
       </c>
       <c r="K2" t="n">
         <v>484287.9598140037</v>
       </c>
       <c r="L2" t="n">
+        <v>484287.9598140036</v>
+      </c>
+      <c r="M2" t="n">
         <v>484287.9598140037</v>
-      </c>
-      <c r="M2" t="n">
-        <v>484287.9598140036</v>
       </c>
       <c r="N2" t="n">
         <v>484287.9598140037</v>
       </c>
       <c r="O2" t="n">
-        <v>484287.9598140037</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="P2" t="n">
-        <v>484287.9598140037</v>
+        <v>484287.9598140036</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073556</v>
+        <v>325412.4618073559</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972776</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
-        <v>1.655303094594274e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551196</v>
+        <v>85055.0279355119</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90964.01098815695</v>
+        <v>90964.01098815717</v>
       </c>
       <c r="C4" t="n">
-        <v>90964.0109881571</v>
+        <v>90964.01098815713</v>
       </c>
       <c r="D4" t="n">
-        <v>90964.01098815713</v>
+        <v>90964.01098815707</v>
       </c>
       <c r="E4" t="n">
         <v>11776.97621680582</v>
@@ -26478,7 +26478,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26524,46 +26524,46 @@
         <v>-1035017.635358573</v>
       </c>
       <c r="C6" t="n">
-        <v>293727.1103690203</v>
+        <v>293727.1103690193</v>
       </c>
       <c r="D6" t="n">
-        <v>293727.1103690195</v>
+        <v>293727.1103690197</v>
       </c>
       <c r="E6" t="n">
-        <v>45975.99196593509</v>
+        <v>45628.6127115782</v>
       </c>
       <c r="F6" t="n">
-        <v>371388.4537732906</v>
+        <v>371041.0745189343</v>
       </c>
       <c r="G6" t="n">
-        <v>371388.453773291</v>
+        <v>371041.0745189336</v>
       </c>
       <c r="H6" t="n">
-        <v>371388.4537732906</v>
+        <v>371041.0745189337</v>
       </c>
       <c r="I6" t="n">
-        <v>371388.4537732906</v>
+        <v>371041.0745189336</v>
       </c>
       <c r="J6" t="n">
-        <v>153857.2513760132</v>
+        <v>153509.8721216563</v>
       </c>
       <c r="K6" t="n">
-        <v>371388.4537732906</v>
+        <v>371041.0745189338</v>
       </c>
       <c r="L6" t="n">
-        <v>371388.4537732909</v>
+        <v>371041.0745189337</v>
       </c>
       <c r="M6" t="n">
-        <v>286333.4258377787</v>
+        <v>285986.0465834219</v>
       </c>
       <c r="N6" t="n">
-        <v>371388.4537732907</v>
+        <v>371041.0745189338</v>
       </c>
       <c r="O6" t="n">
-        <v>371388.4537732907</v>
+        <v>371041.0745189337</v>
       </c>
       <c r="P6" t="n">
-        <v>371388.4537732907</v>
+        <v>371041.0745189337</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022933</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="D4" t="n">
         <v>831.4014554022929</v>
-      </c>
-      <c r="D4" t="n">
-        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
@@ -26816,19 +26816,19 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483761</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26986,7 +26986,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022933</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,31 +27020,31 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>341.3068326973562</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>831.4014554022924</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
         <v>341.306832697356</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>831.4014554022933</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>341.3068326973562</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022933</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>307.2767095024409</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>23.92316891695219</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27435,7 +27435,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27539,16 +27539,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
@@ -27557,7 +27557,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983806</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004729</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27593,13 +27593,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>16.14213605696568</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>236.4091773809888</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>265.6997797295168</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>270.4601319683927</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27636,7 +27636,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27681,10 +27681,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>105.0742887270135</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>69.34270184147218</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27830,16 +27830,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27852,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>373.6346482222989</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>306.4732379112248</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28025,10 +28025,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>75.59380041867269</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28067,13 +28067,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>94.3554362891108</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -29286,7 +29286,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -29495,7 +29495,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>-4.524736141320318e-12</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.3810118616816</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003813</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623196</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574997</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095027</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099062</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746416</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781692</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806955</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752261</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138798</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233477</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837927</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970252</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987488</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238318</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898503</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742022</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
-        <v>138.9375967297391</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098821</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.3612387071222</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112299</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31752,34 +31752,34 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I11" t="n">
         <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q11" t="n">
         <v>593.8732233669225</v>
@@ -31791,10 +31791,10 @@
         <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,31 +31831,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.307619600775</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420756</v>
       </c>
       <c r="K12" t="n">
-        <v>138.5955196772175</v>
+        <v>475.1391886422588</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473075</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862125</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071789</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437245</v>
+        <v>398.7616643557995</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31864,10 +31864,10 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31925,31 +31925,31 @@
         <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S13" t="n">
         <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U13" t="n">
         <v>0.1345549672467222</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>156.3072281639541</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32311,7 +32311,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32323,19 +32323,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>405.6377363145776</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32554,10 +32554,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>402.2342772868842</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32566,16 +32566,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32785,13 +32785,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32800,19 +32800,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>153.8606640989137</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33034,13 +33034,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>446.0127311990643</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,34 +33253,34 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>518.4394551593577</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>211.7351844430268</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,31 +33727,31 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>339.3493584601592</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159414</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>379.4203056753698</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>569.5723171953896</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>579.5299594447131</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554007</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923324</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.921115830227</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129117</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882195</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193721</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037197</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222489</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597719</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013294</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004594</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859627</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127273</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306628</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443197</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226399</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789371</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q11" t="n">
         <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774958</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>0.7540807028584537</v>
+        <v>337.2977496678998</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674334</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641942</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238456</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992801</v>
+        <v>256.1654199113551</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35512,7 +35512,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,25 +35567,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q13" t="n">
         <v>120.4022572998984</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>22.33282074962379</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35971,19 +35971,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>274.2960242312443</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36202,10 +36202,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>263.67989750701</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36214,16 +36214,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36381,7 +36381,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36448,19 +36448,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>8.181160134949776</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36682,13 +36682,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>303.8786972770459</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,19 +36916,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>376.3054212373394</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>73.1808046631526</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,16 +37390,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>200.7949786802851</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193505</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,25 +37627,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>237.2862717533515</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,25 +37864,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>426.9760727509451</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>440.9755796648388</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_18_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_18_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1294352.166251416</v>
+        <v>1296112.696554201</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283191</v>
+        <v>416855.1052283193</v>
       </c>
     </row>
     <row r="9">
@@ -664,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>330.7598727037308</v>
+        <v>330.7598727037321</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -679,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -831,13 +831,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>80.00124118081871</v>
       </c>
       <c r="V4" t="n">
-        <v>15.72846594283918</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>94.81275980261485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -955,16 +955,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>23.79925355567458</v>
       </c>
     </row>
     <row r="6">
@@ -1053,22 +1053,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>74.7576914549238</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1101,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>157.7822070347172</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>15.8369476556409</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>37.28707743115451</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1305,10 +1305,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>71.67037196991711</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>157.7822070347172</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444159</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695524</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576137</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T12" t="n">
         <v>188.3046392154443</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>24.83266606353211</v>
+        <v>66.37524671012171</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>152.0688644383621</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1666,7 +1666,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1767,19 +1767,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>121.8000472740347</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>9.795251606876045</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2004,22 +2004,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>41.74133133758716</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2086,7 +2086,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206834</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2238,16 +2238,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>34.2234001515595</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2256,7 +2256,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,13 +2481,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>31.26260713376613</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2538,7 +2538,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>229.2938944146487</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2566,7 +2566,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417101</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2715,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2727,10 +2727,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2775,13 +2775,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>161.0175085755505</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>180.2167889402269</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2809,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2857,7 +2857,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2955,19 +2955,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>25.52471385612634</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3192,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>83.06560892428168</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>10.63412424768251</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3268,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3325,7 +3325,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3429,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>27.02919805176115</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>253.2918698186444</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>63.1628130171261</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3757,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3909,16 +3909,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>30.6510490328338</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3954,10 +3954,10 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>176.76214411214</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>160.9359580870421</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4306,10 +4306,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1952.040104645723</v>
+        <v>1952.040104645724</v>
       </c>
       <c r="C2" t="n">
-        <v>1952.040104645723</v>
+        <v>1952.040104645724</v>
       </c>
       <c r="D2" t="n">
         <v>1617.939223126803</v>
@@ -4327,16 +4327,16 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
         <v>1573.776739001389</v>
@@ -4345,37 +4345,37 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V2" t="n">
-        <v>2678.274518176917</v>
+        <v>2678.274518176918</v>
       </c>
       <c r="W2" t="n">
-        <v>2325.505862906803</v>
+        <v>2325.505862906804</v>
       </c>
       <c r="X2" t="n">
-        <v>1952.040104645723</v>
+        <v>1952.040104645724</v>
       </c>
       <c r="Y2" t="n">
-        <v>1952.040104645723</v>
+        <v>1952.040104645724</v>
       </c>
     </row>
     <row r="3">
@@ -4385,52 +4385,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556938</v>
+        <v>1702.096133556939</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275811</v>
+        <v>1527.643104275812</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.70869461456</v>
+        <v>1378.708694614561</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609104</v>
+        <v>1219.471239609105</v>
       </c>
       <c r="F3" t="n">
         <v>1072.93668163599</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686076</v>
+        <v>936.5735814686086</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064751</v>
+        <v>846.0716871064762</v>
       </c>
       <c r="I3" t="n">
-        <v>827.064395508013</v>
+        <v>827.0643955080141</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986303</v>
+        <v>920.7416649986314</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978977</v>
+        <v>1159.005863978979</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291643</v>
+        <v>1525.704024291644</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513959</v>
+        <v>1972.98034951396</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068413</v>
+        <v>2446.503393068415</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486468</v>
+        <v>2857.46467248647</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962571</v>
+        <v>3167.964263962572</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="R3" t="n">
         <v>3325.461468201687</v>
@@ -4439,7 +4439,7 @@
         <v>3196.023581695167</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373022</v>
+        <v>3003.380581373023</v>
       </c>
       <c r="U3" t="n">
         <v>2775.312734507438</v>
@@ -4448,7 +4448,7 @@
         <v>2540.160626275695</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>2285.923269547494</v>
       </c>
       <c r="X3" t="n">
         <v>2078.071769341961</v>
@@ -4464,43 +4464,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>777.6936570343842</v>
+        <v>994.2880032601528</v>
       </c>
       <c r="C4" t="n">
-        <v>608.7574741064773</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="D4" t="n">
-        <v>458.6408346941415</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E4" t="n">
-        <v>310.7277411117484</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F4" t="n">
-        <v>163.8377936138381</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="G4" t="n">
-        <v>163.8377936138381</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
@@ -4509,31 +4509,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T4" t="n">
-        <v>1424.011591242373</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U4" t="n">
-        <v>1424.011591242373</v>
+        <v>1624.71859813194</v>
       </c>
       <c r="V4" t="n">
-        <v>1408.124251906171</v>
+        <v>1624.71859813194</v>
       </c>
       <c r="W4" t="n">
-        <v>1408.124251906171</v>
+        <v>1624.71859813194</v>
       </c>
       <c r="X4" t="n">
-        <v>1180.134701008154</v>
+        <v>1396.729047233923</v>
       </c>
       <c r="Y4" t="n">
-        <v>959.3421218646239</v>
+        <v>1175.936468090393</v>
       </c>
     </row>
     <row r="5">
@@ -4543,7 +4543,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2071.975386180639</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C5" t="n">
         <v>1976.204921733553</v>
@@ -4603,16 +4603,16 @@
         <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450753</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.975386180639</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="X5" t="n">
-        <v>2071.975386180639</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="Y5" t="n">
-        <v>2071.975386180639</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="6">
@@ -4646,22 +4646,22 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
         <v>2407.411984886741</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>66.51211643218342</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C7" t="n">
-        <v>66.51211643218342</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D7" t="n">
-        <v>66.51211643218342</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E7" t="n">
-        <v>66.51211643218342</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
         <v>66.51211643218342</v>
@@ -4749,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1134.908724368016</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V7" t="n">
-        <v>880.2242361621296</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="W7" t="n">
-        <v>590.8070661251691</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X7" t="n">
-        <v>362.8175152271517</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y7" t="n">
-        <v>142.0249360836216</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1628.178203944121</v>
+        <v>1992.201838557433</v>
       </c>
       <c r="C8" t="n">
-        <v>1259.215687003709</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D8" t="n">
-        <v>900.949988396959</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>515.1617357987147</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>104.1758310091072</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218343</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3072.075344883008</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2741.012457539437</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W8" t="n">
-        <v>2388.243802269323</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="X8" t="n">
-        <v>2014.778044008243</v>
+        <v>2382.341170533245</v>
       </c>
       <c r="Y8" t="n">
-        <v>2014.778044008243</v>
+        <v>1992.201838557433</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4889,46 +4889,46 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>848.0708164780106</v>
+        <v>752.7622949738579</v>
       </c>
       <c r="C10" t="n">
-        <v>679.1346335501037</v>
+        <v>583.826112045951</v>
       </c>
       <c r="D10" t="n">
-        <v>529.0179941377679</v>
+        <v>433.7094726336153</v>
       </c>
       <c r="E10" t="n">
-        <v>381.1049005553748</v>
+        <v>285.7963790512222</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574645</v>
+        <v>138.9064315533118</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>138.9064315533118</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4998,16 +4998,16 @@
         <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1767.918581386758</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W10" t="n">
-        <v>1478.501411349798</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X10" t="n">
-        <v>1250.51186045178</v>
+        <v>1155.203338947628</v>
       </c>
       <c r="Y10" t="n">
-        <v>1029.71928130825</v>
+        <v>934.4107598040977</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551877</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611466</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406471</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168634</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362708</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111719</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075814</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068013</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694711</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398591</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492575</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615999</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5105,34 +5105,34 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G12" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273913</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="J12" t="n">
-        <v>245.230692780394</v>
+        <v>243.4633055756264</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516147</v>
+        <v>577.3880777468469</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167374</v>
+        <v>1072.713683962605</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793926</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348534</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>555.8158034133954</v>
+        <v>724.7519863413022</v>
       </c>
       <c r="C13" t="n">
-        <v>555.8158034133954</v>
+        <v>555.8158034133953</v>
       </c>
       <c r="D13" t="n">
-        <v>555.8158034133954</v>
+        <v>555.8158034133953</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>407.9027098310022</v>
       </c>
       <c r="F13" t="n">
-        <v>261.012762333092</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038346</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797749</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2421.879582505987</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S13" t="n">
-        <v>2239.024748160891</v>
+        <v>2226.312466258559</v>
       </c>
       <c r="T13" t="n">
-        <v>2019.423283183833</v>
+        <v>2006.7110012815</v>
       </c>
       <c r="U13" t="n">
-        <v>1730.34805652803</v>
+        <v>1717.635774625697</v>
       </c>
       <c r="V13" t="n">
-        <v>1475.663568322143</v>
+        <v>1462.95128641981</v>
       </c>
       <c r="W13" t="n">
-        <v>1186.246398285183</v>
+        <v>1173.53411638285</v>
       </c>
       <c r="X13" t="n">
-        <v>958.2568473871653</v>
+        <v>945.5445654848323</v>
       </c>
       <c r="Y13" t="n">
-        <v>737.4642682436352</v>
+        <v>724.7519863413022</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5266,52 +5266,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,25 +5351,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>724.7519863413023</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>555.8158034133954</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D16" t="n">
-        <v>555.8158034133954</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310023</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5481,7 +5481,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>906.400451171542</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5509,10 +5509,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111715</v>
@@ -5533,10 +5533,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5588,10 +5588,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
         <v>245.2306927803937</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="20">
@@ -5731,28 +5731,28 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
@@ -5764,37 +5764,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,16 +5825,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="23">
@@ -5971,37 +5971,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.422291068009</v>
@@ -6065,13 +6065,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>983.3556038098242</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>814.4194208819173</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>664.3027814695815</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>516.3896878871884</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>2157.887856924459</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1903.203368718572</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>1385.796647783594</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>1165.004068640064</v>
       </c>
     </row>
     <row r="26">
@@ -6202,16 +6202,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
         <v>793.7736536168611</v>
@@ -6220,58 +6220,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,16 +6299,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6360,55 +6360,55 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>707.672526468518</v>
+        <v>847.644273983533</v>
       </c>
       <c r="C28" t="n">
-        <v>538.7363435406111</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D28" t="n">
-        <v>388.6197041282753</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E28" t="n">
-        <v>240.7066105458822</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797186</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S28" t="n">
         <v>2264.108249235165</v>
@@ -6423,13 +6423,13 @@
         <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1338.103121340305</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>1110.113570442288</v>
+        <v>1029.292738813773</v>
       </c>
       <c r="Y28" t="n">
-        <v>889.3209912987577</v>
+        <v>1029.292738813773</v>
       </c>
     </row>
     <row r="29">
@@ -6445,37 +6445,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6505,7 +6505,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6539,13 +6539,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D31" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E31" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F31" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6621,52 +6621,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6679,7 +6679,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6688,16 +6688,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111717</v>
@@ -6706,43 +6706,43 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,16 +6773,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>800.5007694647281</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>631.5645865368213</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>481.4479471244855</v>
       </c>
       <c r="E34" t="n">
-        <v>261.0127623330919</v>
+        <v>333.5348535420924</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>186.644906044182</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>186.644906044182</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>1202.941813438498</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>982.1492342949679</v>
       </c>
     </row>
     <row r="35">
@@ -6931,46 +6931,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
         <v>3820.749612123003</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,16 +7010,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="38">
@@ -7150,46 +7150,46 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7250,13 +7250,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>631.7012443408906</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>631.7012443408906</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408906</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,16 +7484,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263527</v>
+        <v>733.4550657171305</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356195</v>
+        <v>564.5188827892237</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232838</v>
+        <v>414.4022433768879</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>266.4891497944948</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>266.4891497944948</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U43" t="n">
-        <v>2197.062545487567</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V43" t="n">
-        <v>2018.514925172274</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W43" t="n">
-        <v>1729.097755135313</v>
+        <v>1363.885660588918</v>
       </c>
       <c r="X43" t="n">
-        <v>1501.108204237296</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>915.1035305473703</v>
       </c>
     </row>
     <row r="44">
@@ -7645,25 +7645,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7724,13 +7724,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>782.8410298377091</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>782.8410298377091</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D46" t="n">
-        <v>632.7243904253734</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2284.401509754965</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2064.800044777906</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1775.724818122104</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1521.040329916217</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1231.623159879256</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>1003.633608981239</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>782.8410298377091</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23311,7 +23311,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>2.359001882723533e-12</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23436,7 +23436,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.54258064658951</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>28.95742156328248</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23554,7 +23554,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23655,19 +23655,19 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>45.44677382459312</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>208.7894017452188</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23892,22 +23892,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>125.5054897610407</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24126,16 +24126,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>145.6085800303778</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24369,13 +24369,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>114.1584408891651</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24426,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24615,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24663,13 +24663,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>125.505489761045</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>45.49286644881028</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,7 +24891,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>191.8807364711619</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>63.36835372228749</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>129.6605885985414</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25213,7 +25213,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>32.89260457059976</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>116.6691671648112</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>65.54986409393024</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25797,16 +25797,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>134.873089259435</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25842,10 +25842,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>75.37549921168795</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>62.35543909864911</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>20.09032791460254</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>955177.0267141479</v>
+        <v>955177.0267141478</v>
       </c>
     </row>
     <row r="3">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>939197.5810137287</v>
+        <v>939197.5810137285</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>939197.5810137287</v>
+        <v>939197.5810137286</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>939197.5810137287</v>
+        <v>939197.5810137289</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>939197.5810137287</v>
+        <v>939197.581013729</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>939197.5810137286</v>
+        <v>939197.5810137289</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>939197.5810137287</v>
+        <v>939197.5810137289</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>939197.5810137287</v>
+        <v>939197.581013729</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>939197.5810137289</v>
+        <v>939197.5810137287</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>939197.581013729</v>
+        <v>939197.5810137289</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>939197.581013729</v>
+        <v>939197.5810137287</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>492625.06191857</v>
+        <v>492625.0619185701</v>
       </c>
       <c r="C2" t="n">
         <v>492625.06191857</v>
@@ -26322,34 +26322,34 @@
         <v>492625.06191857</v>
       </c>
       <c r="E2" t="n">
-        <v>484287.959814004</v>
+        <v>484287.9598140035</v>
       </c>
       <c r="F2" t="n">
         <v>484287.9598140035</v>
       </c>
       <c r="G2" t="n">
-        <v>484287.9598140035</v>
+        <v>484287.9598140037</v>
       </c>
       <c r="H2" t="n">
+        <v>484287.9598140037</v>
+      </c>
+      <c r="I2" t="n">
+        <v>484287.9598140037</v>
+      </c>
+      <c r="J2" t="n">
+        <v>484287.9598140037</v>
+      </c>
+      <c r="K2" t="n">
         <v>484287.9598140036</v>
-      </c>
-      <c r="I2" t="n">
-        <v>484287.9598140035</v>
-      </c>
-      <c r="J2" t="n">
-        <v>484287.9598140035</v>
-      </c>
-      <c r="K2" t="n">
-        <v>484287.9598140037</v>
       </c>
       <c r="L2" t="n">
         <v>484287.9598140036</v>
       </c>
       <c r="M2" t="n">
-        <v>484287.9598140037</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="N2" t="n">
-        <v>484287.9598140037</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="O2" t="n">
         <v>484287.9598140036</v>
@@ -26365,31 +26365,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073559</v>
+        <v>325412.4618073546</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>4.897497092315462e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.22694927995326e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972776</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>85055.02793551164</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90964.01098815717</v>
+        <v>90964.01098815707</v>
       </c>
       <c r="C4" t="n">
         <v>90964.01098815713</v>
       </c>
       <c r="D4" t="n">
-        <v>90964.01098815707</v>
+        <v>90964.01098815708</v>
       </c>
       <c r="E4" t="n">
         <v>11776.97621680582</v>
@@ -26478,7 +26478,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26524,46 +26524,46 @@
         <v>-1035017.635358573</v>
       </c>
       <c r="C6" t="n">
-        <v>293727.1103690193</v>
+        <v>293727.1103690198</v>
       </c>
       <c r="D6" t="n">
         <v>293727.1103690197</v>
       </c>
       <c r="E6" t="n">
-        <v>45628.6127115782</v>
+        <v>45941.25404050035</v>
       </c>
       <c r="F6" t="n">
-        <v>371041.0745189343</v>
+        <v>371353.7158478544</v>
       </c>
       <c r="G6" t="n">
-        <v>371041.0745189336</v>
+        <v>371353.715847855</v>
       </c>
       <c r="H6" t="n">
-        <v>371041.0745189337</v>
+        <v>371353.7158478549</v>
       </c>
       <c r="I6" t="n">
-        <v>371041.0745189336</v>
+        <v>371353.715847855</v>
       </c>
       <c r="J6" t="n">
-        <v>153509.8721216563</v>
+        <v>153822.5134505774</v>
       </c>
       <c r="K6" t="n">
-        <v>371041.0745189338</v>
+        <v>371353.715847855</v>
       </c>
       <c r="L6" t="n">
-        <v>371041.0745189337</v>
+        <v>371353.7158478549</v>
       </c>
       <c r="M6" t="n">
-        <v>285986.0465834219</v>
+        <v>286298.6879123434</v>
       </c>
       <c r="N6" t="n">
-        <v>371041.0745189338</v>
+        <v>371353.715847855</v>
       </c>
       <c r="O6" t="n">
-        <v>371041.0745189337</v>
+        <v>371353.7158478549</v>
       </c>
       <c r="P6" t="n">
-        <v>371041.0745189337</v>
+        <v>371353.7158478549</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26746,7 +26746,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26789,46 +26789,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.401455402293</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26959,19 +26959,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483761</v>
+        <v>278.198799748375</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.401455402293</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,22 +27020,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973549</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022932</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973549</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.401455402293</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,16 +27266,16 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973549</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
   </sheetData>
@@ -27384,7 +27384,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>23.92316891695219</v>
+        <v>23.92316891695083</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27551,13 +27551,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,19 +27584,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>206.2105970247942</v>
       </c>
       <c r="V4" t="n">
-        <v>236.4091773809888</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>270.4601319683927</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27675,16 +27675,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>362.438685100379</v>
       </c>
     </row>
     <row r="6">
@@ -27773,22 +27773,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>105.0742887270135</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -27821,19 +27821,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>94.3554362891108</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>349.4359441153666</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>373.6346482222989</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28025,10 +28025,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>73.08464294440367</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28070,7 +28070,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>94.3554362891108</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -29286,7 +29286,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -29495,7 +29495,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>-4.524736141320318e-12</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348436</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135343</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663285</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817579</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162565</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M11" t="n">
-        <v>965.646344017568</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159431</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460033</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236512</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651529</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078748</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,31 +31831,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659451</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521102</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I12" t="n">
-        <v>101.307619600775</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420756</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422588</v>
+        <v>475.1391886422584</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473075</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862125</v>
+        <v>745.5466476862118</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071789</v>
+        <v>465.7451325200318</v>
       </c>
       <c r="O12" t="n">
-        <v>398.7616643557995</v>
+        <v>700.0808204437241</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742441</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588155</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392047</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
-        <v>377.493960610679</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417316</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32074,7 +32074,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32092,7 +32092,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,16 +32554,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
         <v>398.7616643558013</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,16 +32791,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
         <v>398.7616643558013</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,16 +33028,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
         <v>398.7616643558013</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,16 +33265,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
         <v>398.7616643558013</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,16 +33502,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
         <v>398.7616643558013</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,16 +33739,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
         <v>398.7616643558013</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,16 +33976,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
         <v>398.7616643558013</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,16 +34213,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
         <v>398.7616643558013</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,16 +34450,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
         <v>398.7616643558013</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317369</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396422</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367773</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902953</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193523</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243165</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902406</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774958</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678998</v>
+        <v>337.2977496678994</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674334</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641942</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238456</v>
+        <v>334.4034204366985</v>
       </c>
       <c r="O12" t="n">
-        <v>256.1654199113551</v>
+        <v>557.4845759992796</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295347</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066251</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35740,7 +35740,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,13 +36205,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
         <v>256.1654199113569</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,13 +36442,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
         <v>256.1654199113569</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,13 +36679,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
         <v>256.1654199113569</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,13 +36916,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
         <v>256.1654199113569</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,13 +37153,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
         <v>256.1654199113569</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,13 +37390,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
         <v>256.1654199113569</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
         <v>256.1654199113569</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,13 +37864,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
         <v>256.1654199113569</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,13 +38101,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
         <v>256.1654199113569</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
